--- a/Deposit_Facility_ECB.xlsx
+++ b/Deposit_Facility_ECB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yesminehachana/Desktop/Classes/Dauphine/2nd Semester/Macroeconomics MATLAB Project/Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF7B8B-72B4-7F49-831A-1FFE5D439CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5613074-C603-0F4D-B457-4F12663DAA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA(FM)" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DATA(FM)'!$B$1:$B$62</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ECB Data Portal</t>
   </si>
@@ -92,200 +105,17 @@
     <t>2025-03-06 15:54:51</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>OBS.VALUE</t>
-  </si>
-  <si>
-    <t>1999-01-04</t>
-  </si>
-  <si>
-    <t>1999-01-22</t>
-  </si>
-  <si>
-    <t>1999-04-09</t>
-  </si>
-  <si>
-    <t>1999-11-05</t>
-  </si>
-  <si>
-    <t>2000-02-04</t>
-  </si>
-  <si>
-    <t>2000-03-17</t>
-  </si>
-  <si>
-    <t>2000-04-28</t>
-  </si>
-  <si>
-    <t>2000-06-09</t>
-  </si>
-  <si>
-    <t>2000-09-01</t>
-  </si>
-  <si>
-    <t>2000-10-06</t>
-  </si>
-  <si>
-    <t>2001-05-11</t>
-  </si>
-  <si>
-    <t>2001-08-31</t>
-  </si>
-  <si>
-    <t>2001-09-18</t>
-  </si>
-  <si>
-    <t>2001-11-09</t>
-  </si>
-  <si>
-    <t>2002-12-06</t>
-  </si>
-  <si>
-    <t>2003-03-07</t>
-  </si>
-  <si>
-    <t>2003-06-06</t>
-  </si>
-  <si>
-    <t>2005-12-06</t>
-  </si>
-  <si>
-    <t>2006-03-08</t>
-  </si>
-  <si>
-    <t>2006-06-15</t>
-  </si>
-  <si>
-    <t>2006-08-09</t>
-  </si>
-  <si>
-    <t>2006-10-11</t>
-  </si>
-  <si>
-    <t>2006-12-13</t>
-  </si>
-  <si>
-    <t>2007-03-14</t>
-  </si>
-  <si>
-    <t>2007-06-13</t>
-  </si>
-  <si>
-    <t>2008-07-09</t>
-  </si>
-  <si>
-    <t>2008-10-08</t>
-  </si>
-  <si>
-    <t>2008-10-09</t>
-  </si>
-  <si>
-    <t>2008-11-12</t>
-  </si>
-  <si>
-    <t>2008-12-10</t>
-  </si>
-  <si>
-    <t>2009-01-21</t>
-  </si>
-  <si>
-    <t>2009-03-11</t>
-  </si>
-  <si>
-    <t>2009-04-08</t>
-  </si>
-  <si>
-    <t>2011-04-13</t>
-  </si>
-  <si>
-    <t>2011-07-13</t>
-  </si>
-  <si>
-    <t>2011-11-09</t>
-  </si>
-  <si>
-    <t>2011-12-14</t>
-  </si>
-  <si>
-    <t>2012-07-11</t>
-  </si>
-  <si>
-    <t>2013-05-08</t>
-  </si>
-  <si>
-    <t>2013-11-13</t>
-  </si>
-  <si>
-    <t>2014-06-11</t>
-  </si>
-  <si>
-    <t>2014-09-10</t>
-  </si>
-  <si>
-    <t>2015-12-09</t>
-  </si>
-  <si>
-    <t>2016-03-16</t>
-  </si>
-  <si>
-    <t>2019-09-18</t>
-  </si>
-  <si>
-    <t>2022-07-27</t>
-  </si>
-  <si>
-    <t>2022-09-14</t>
-  </si>
-  <si>
-    <t>2022-11-02</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>2023-03-22</t>
-  </si>
-  <si>
-    <t>2023-05-10</t>
-  </si>
-  <si>
-    <t>2023-06-21</t>
-  </si>
-  <si>
-    <t>2023-08-02</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2024-06-12</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>2024-10-23</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>2025-03-12</t>
+    <t>Deposite Facility Rate ECB</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -364,18 +194,6 @@
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -400,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,8 +232,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,506 +570,506 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
+      <c r="A2" s="13">
+        <v>36164</v>
       </c>
       <c r="B2">
         <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
+      <c r="A3" s="13">
+        <v>36182</v>
       </c>
       <c r="B3">
         <v>-0.75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
+      <c r="A4" s="13">
+        <v>36259</v>
       </c>
       <c r="B4">
         <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
+      <c r="A5" s="13">
+        <v>36469</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
+      <c r="A6" s="13">
+        <v>36560</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
+      <c r="A7" s="13">
+        <v>36602</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
+      <c r="A8" s="13">
+        <v>36644</v>
       </c>
       <c r="B8">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
+      <c r="A9" s="13">
+        <v>36686</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
+      <c r="A10" s="13">
+        <v>36770</v>
       </c>
       <c r="B10">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
+      <c r="A11" s="13">
+        <v>36805</v>
       </c>
       <c r="B11">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
+      <c r="A12" s="13">
+        <v>37022</v>
       </c>
       <c r="B12">
         <v>-0.25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
+      <c r="A13" s="13">
+        <v>37134</v>
       </c>
       <c r="B13">
         <v>-0.25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
+      <c r="A14" s="13">
+        <v>37152</v>
       </c>
       <c r="B14">
         <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
+      <c r="A15" s="13">
+        <v>37204</v>
       </c>
       <c r="B15">
         <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
+      <c r="A16" s="13">
+        <v>37596</v>
       </c>
       <c r="B16">
         <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
+      <c r="A17" s="13">
+        <v>37687</v>
       </c>
       <c r="B17">
         <v>-0.25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
+      <c r="A18" s="13">
+        <v>37778</v>
       </c>
       <c r="B18">
         <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>41</v>
+      <c r="A19" s="13">
+        <v>38692</v>
       </c>
       <c r="B19">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
+      <c r="A20" s="13">
+        <v>38784</v>
       </c>
       <c r="B20">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>43</v>
+      <c r="A21" s="13">
+        <v>38883</v>
       </c>
       <c r="B21">
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>44</v>
+      <c r="A22" s="13">
+        <v>38938</v>
       </c>
       <c r="B22">
         <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>45</v>
+      <c r="A23" s="13">
+        <v>39001</v>
       </c>
       <c r="B23">
         <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
+      <c r="A24" s="13">
+        <v>39064</v>
       </c>
       <c r="B24">
         <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>47</v>
+      <c r="A25" s="13">
+        <v>39155</v>
       </c>
       <c r="B25">
         <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>48</v>
+      <c r="A26" s="13">
+        <v>39246</v>
       </c>
       <c r="B26">
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>49</v>
+      <c r="A27" s="13">
+        <v>39638</v>
       </c>
       <c r="B27">
         <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>50</v>
+      <c r="A28" s="13">
+        <v>39729</v>
       </c>
       <c r="B28">
         <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>51</v>
+      <c r="A29" s="13">
+        <v>39730</v>
       </c>
       <c r="B29">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>52</v>
+      <c r="A30" s="13">
+        <v>39764</v>
       </c>
       <c r="B30">
         <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>53</v>
+      <c r="A31" s="13">
+        <v>39792</v>
       </c>
       <c r="B31">
         <v>-0.75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="A32" s="13">
+        <v>39834</v>
       </c>
       <c r="B32">
         <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
+      <c r="A33" s="13">
+        <v>39883</v>
       </c>
       <c r="B33">
         <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
+      <c r="A34" s="13">
+        <v>39911</v>
       </c>
       <c r="B34">
         <v>-0.25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>57</v>
+      <c r="A35" s="13">
+        <v>40646</v>
       </c>
       <c r="B35">
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>58</v>
+      <c r="A36" s="13">
+        <v>40737</v>
       </c>
       <c r="B36">
         <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>59</v>
+      <c r="A37" s="13">
+        <v>40856</v>
       </c>
       <c r="B37">
         <v>-0.25</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>60</v>
+      <c r="A38" s="13">
+        <v>40891</v>
       </c>
       <c r="B38">
         <v>-0.25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>61</v>
+      <c r="A39" s="13">
+        <v>41101</v>
       </c>
       <c r="B39">
         <v>-0.25</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>62</v>
+      <c r="A40" s="13">
+        <v>41402</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>63</v>
+      <c r="A41" s="13">
+        <v>41591</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>64</v>
+      <c r="A42" s="13">
+        <v>41801</v>
       </c>
       <c r="B42">
         <v>-0.1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>65</v>
+      <c r="A43" s="13">
+        <v>41892</v>
       </c>
       <c r="B43">
         <v>-0.1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>66</v>
+      <c r="A44" s="13">
+        <v>42347</v>
       </c>
       <c r="B44">
         <v>-0.1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>67</v>
+      <c r="A45" s="13">
+        <v>42445</v>
       </c>
       <c r="B45">
         <v>-0.1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>68</v>
+      <c r="A46" s="13">
+        <v>43726</v>
       </c>
       <c r="B46">
         <v>-0.1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>69</v>
+      <c r="A47" s="13">
+        <v>44769</v>
       </c>
       <c r="B47">
         <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>70</v>
+      <c r="A48" s="13">
+        <v>44818</v>
       </c>
       <c r="B48">
         <v>0.75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>71</v>
+      <c r="A49" s="13">
+        <v>44867</v>
       </c>
       <c r="B49">
         <v>0.75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>72</v>
+      <c r="A50" s="13">
+        <v>44916</v>
       </c>
       <c r="B50">
         <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>73</v>
+      <c r="A51" s="13">
+        <v>44965</v>
       </c>
       <c r="B51">
         <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>74</v>
+      <c r="A52" s="13">
+        <v>45007</v>
       </c>
       <c r="B52">
         <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>75</v>
+      <c r="A53" s="13">
+        <v>45056</v>
       </c>
       <c r="B53">
         <v>0.25</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>76</v>
+      <c r="A54" s="13">
+        <v>45098</v>
       </c>
       <c r="B54">
         <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>77</v>
+      <c r="A55" s="13">
+        <v>45140</v>
       </c>
       <c r="B55">
         <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>78</v>
+      <c r="A56" s="13">
+        <v>45189</v>
       </c>
       <c r="B56">
         <v>0.25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>79</v>
+      <c r="A57" s="13">
+        <v>45455</v>
       </c>
       <c r="B57">
         <v>-0.25</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>80</v>
+      <c r="A58" s="13">
+        <v>45553</v>
       </c>
       <c r="B58">
         <v>-0.25</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>81</v>
+      <c r="A59" s="13">
+        <v>45588</v>
       </c>
       <c r="B59">
         <v>-0.25</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>82</v>
+      <c r="A60" s="13">
+        <v>45644</v>
       </c>
       <c r="B60">
         <v>-0.25</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>83</v>
+      <c r="A61" s="13">
+        <v>45693</v>
       </c>
       <c r="B61">
         <v>-0.25</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>84</v>
+      <c r="A62" s="13">
+        <v>45728</v>
       </c>
       <c r="B62">
         <v>-0.25</v>
@@ -1270,6 +1087,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
